--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_4.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_4.xlsx
@@ -518,1266 +518,1266 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_10</t>
+          <t>model_14_4_7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9761400771475411</v>
+        <v>0.9589029281771121</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7154696281419471</v>
+        <v>0.7954178368753663</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8923182708670736</v>
+        <v>-2.305807532916703</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9873599233945387</v>
+        <v>0.6665055531832449</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9539146835276786</v>
+        <v>0.7635958473177668</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1595514139792351</v>
+        <v>0.2748163085142667</v>
       </c>
       <c r="H2" t="n">
-        <v>1.902655906756694</v>
+        <v>1.368041866828668</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6648658622421764</v>
+        <v>0.3525451587797452</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1337419319965943</v>
+        <v>1.11215717486011</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3993038548652997</v>
+        <v>0.7323511512008714</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9235868505808797</v>
+        <v>0.6094261942323362</v>
       </c>
       <c r="M2" t="n">
-        <v>0.399438873895913</v>
+        <v>0.5242292518681753</v>
       </c>
       <c r="N2" t="n">
-        <v>1.011686492825694</v>
+        <v>1.0201291780357</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4164438137101204</v>
+        <v>0.5465467764243561</v>
       </c>
       <c r="P2" t="n">
-        <v>149.6707781280035</v>
+        <v>148.5833047470906</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.6487133433821</v>
+        <v>237.5612399624692</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_11</t>
+          <t>model_14_4_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9757406116000291</v>
+        <v>0.9604230253735399</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7153885936700639</v>
+        <v>0.7953002679081577</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8854172285393006</v>
+        <v>-2.513032306089639</v>
       </c>
       <c r="E3" t="n">
-        <v>0.986244271391702</v>
+        <v>0.6776214822553626</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9507746057668934</v>
+        <v>0.7660121329189479</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1622226419348178</v>
+        <v>0.2646514115623505</v>
       </c>
       <c r="H3" t="n">
-        <v>1.903197784643306</v>
+        <v>1.368828051053748</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7074753884317179</v>
+        <v>0.3746444763697479</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1455464058896378</v>
+        <v>1.07508711150285</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4265108971606778</v>
+        <v>0.7248657939362988</v>
       </c>
       <c r="L3" t="n">
-        <v>0.940900017290074</v>
+        <v>0.624897559610231</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4027687201544055</v>
+        <v>0.5144428166107002</v>
       </c>
       <c r="N3" t="n">
-        <v>1.011882149420394</v>
+        <v>1.019384640633368</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4199154184175689</v>
+        <v>0.5363437123572565</v>
       </c>
       <c r="P3" t="n">
-        <v>149.6375711086998</v>
+        <v>148.658683493995</v>
       </c>
       <c r="Q3" t="n">
-        <v>238.6155063240784</v>
+        <v>237.6366187093736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_9</t>
+          <t>model_14_4_6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9763788040769428</v>
+        <v>0.9570062670713564</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7153779790637504</v>
+        <v>0.7952799884638275</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8997272937024896</v>
+        <v>-2.085725507528809</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9883801999153514</v>
+        <v>0.653756547618086</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9571775143097832</v>
+        <v>0.7605218503335336</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1579550459030898</v>
+        <v>0.2874992900617764</v>
       </c>
       <c r="H4" t="n">
-        <v>1.9032687645646</v>
+        <v>1.368963659791361</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6191198810482821</v>
+        <v>0.3290746899722383</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1229466055659533</v>
+        <v>1.154673319122668</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3710332253286669</v>
+        <v>0.7418740178876388</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9039891275542367</v>
+        <v>0.5915676856079169</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3974355871120373</v>
+        <v>0.5361896027169647</v>
       </c>
       <c r="N4" t="n">
-        <v>1.011569565350069</v>
+        <v>1.021058154903825</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4143552428604798</v>
+        <v>0.5590163041701179</v>
       </c>
       <c r="P4" t="n">
-        <v>149.6908896120785</v>
+        <v>148.4930697761963</v>
       </c>
       <c r="Q4" t="n">
-        <v>238.6688248274571</v>
+        <v>237.4710049915749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_12</t>
+          <t>model_14_4_9</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9752320398623093</v>
+        <v>0.9616425847920888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7151840242866292</v>
+        <v>0.7950109021139424</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8790191284988786</v>
+        <v>-2.706685939760884</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9850811709993164</v>
+        <v>0.6873494935409444</v>
       </c>
       <c r="F5" t="n">
-        <v>0.947784762062729</v>
+        <v>0.7679149707736066</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1656234634867073</v>
+        <v>0.2564962121149597</v>
       </c>
       <c r="H5" t="n">
-        <v>1.90456574105229</v>
+        <v>1.370763041452072</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7469795674074813</v>
+        <v>0.3952965108124996</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1578529209875328</v>
+        <v>1.04264555917222</v>
       </c>
       <c r="K5" t="n">
-        <v>0.452416244197507</v>
+        <v>0.7189710349923599</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9562021278695453</v>
+        <v>0.6383469392368668</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4069686271528891</v>
+        <v>0.5064545508877966</v>
       </c>
       <c r="N5" t="n">
-        <v>1.012131245781726</v>
+        <v>1.018787305407957</v>
       </c>
       <c r="O5" t="n">
-        <v>0.424294124151984</v>
+        <v>0.5280153696245392</v>
       </c>
       <c r="P5" t="n">
-        <v>149.5960767186921</v>
+        <v>148.7212827641267</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.5740119340708</v>
+        <v>237.6992179795054</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_8</t>
+          <t>model_14_4_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9763900212091751</v>
+        <v>0.9546367536760346</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7150504263816599</v>
+        <v>0.7947690420854633</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9076374425891146</v>
+        <v>-1.854132761067238</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9892412247126374</v>
+        <v>0.6390682832054664</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9605216584456908</v>
+        <v>0.7566022121148023</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1578800368882023</v>
+        <v>0.3033442370468992</v>
       </c>
       <c r="H6" t="n">
-        <v>1.905459110857981</v>
+        <v>1.372380360576175</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5702797667381025</v>
+        <v>0.3043766696668955</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1138362873708677</v>
+        <v>1.203656619470435</v>
       </c>
       <c r="K6" t="n">
-        <v>0.342058060419143</v>
+        <v>0.7540165776913041</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8817763052470917</v>
+        <v>0.5709163063527609</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3973412096526137</v>
+        <v>0.5507669534811427</v>
       </c>
       <c r="N6" t="n">
-        <v>1.011564071244486</v>
+        <v>1.022218732893371</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4142568475572203</v>
+        <v>0.5742142429356031</v>
       </c>
       <c r="P6" t="n">
-        <v>149.6918395890809</v>
+        <v>148.3857740449539</v>
       </c>
       <c r="Q6" t="n">
-        <v>238.6697748044595</v>
+        <v>237.3637092603325</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_13</t>
+          <t>model_14_4_10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9746539216824897</v>
+        <v>0.9626217360996707</v>
       </c>
       <c r="C7" t="n">
-        <v>0.714893827763057</v>
+        <v>0.7946095953760861</v>
       </c>
       <c r="D7" t="n">
-        <v>0.873110131748659</v>
+        <v>-2.886582315454782</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9839064323672476</v>
+        <v>0.6958889484867343</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9449620818261888</v>
+        <v>0.769414865512367</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1694893424171511</v>
+        <v>0.2499486228125813</v>
       </c>
       <c r="H7" t="n">
-        <v>1.90650628654165</v>
+        <v>1.373446581455965</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7834638461329024</v>
+        <v>0.4144814136543626</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1702825777964182</v>
+        <v>1.01416767542331</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4768732119646603</v>
+        <v>0.7143245445388361</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9697415606520301</v>
+        <v>0.6500719884836422</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4116908335354956</v>
+        <v>0.4999486201726946</v>
       </c>
       <c r="N7" t="n">
-        <v>1.012414405706536</v>
+        <v>1.018307721094039</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4292173646366128</v>
+        <v>0.5212324679697623</v>
       </c>
       <c r="P7" t="n">
-        <v>149.5499304614669</v>
+        <v>148.7729997819788</v>
       </c>
       <c r="Q7" t="n">
-        <v>238.5278656768455</v>
+        <v>237.7509349973574</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_14</t>
+          <t>model_14_4_11</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9740364149849436</v>
+        <v>0.9634084632441386</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7145471705826556</v>
+        <v>0.7941394865328675</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8676714827516974</v>
+        <v>-3.05286049513211</v>
       </c>
       <c r="E8" t="n">
-        <v>0.982745906296463</v>
+        <v>0.7034055055313145</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9423156794787027</v>
+        <v>0.7705985890394542</v>
       </c>
       <c r="G8" t="n">
-        <v>0.173618612546998</v>
+        <v>0.2446877747749793</v>
       </c>
       <c r="H8" t="n">
-        <v>1.908824384703204</v>
+        <v>1.37659020145522</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8170440280626874</v>
+        <v>0.4322140150451732</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1825618545511254</v>
+        <v>0.9891010126132732</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4998028290263219</v>
+        <v>0.710657513829223</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9817346121231991</v>
+        <v>0.6603302609706536</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4166756682924957</v>
+        <v>0.4946592511769888</v>
       </c>
       <c r="N8" t="n">
-        <v>1.012716857966558</v>
+        <v>1.01792238534981</v>
       </c>
       <c r="O8" t="n">
-        <v>0.434414414129249</v>
+        <v>0.515717919585406</v>
       </c>
       <c r="P8" t="n">
-        <v>149.5017885347411</v>
+        <v>148.8155445396695</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.4797237501197</v>
+        <v>237.7934797550482</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_7</t>
+          <t>model_14_4_4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9760877749403545</v>
+        <v>0.9516724036955714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7144059125498835</v>
+        <v>0.7937177316285766</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9160258096863818</v>
+        <v>-1.613076596968136</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9898587535163642</v>
+        <v>0.6220510143748574</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9638875239555311</v>
+        <v>0.7515918306137838</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1599011590795222</v>
+        <v>0.323166859015834</v>
       </c>
       <c r="H9" t="n">
-        <v>1.909768977818783</v>
+        <v>1.379410478442216</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5184869605876379</v>
+        <v>0.2786694308754787</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1073023479137065</v>
+        <v>1.260406822681117</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3128946917820928</v>
+        <v>0.769538126778298</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8830112158016605</v>
+        <v>0.5469942309214784</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3998764297623982</v>
+        <v>0.5684776680009814</v>
       </c>
       <c r="N9" t="n">
-        <v>1.011712110233296</v>
+        <v>1.023670659414414</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4168999972357073</v>
+        <v>0.5926789392387846</v>
       </c>
       <c r="P9" t="n">
-        <v>149.666398820782</v>
+        <v>148.2591729955332</v>
       </c>
       <c r="Q9" t="n">
-        <v>238.6443340361606</v>
+        <v>237.2371082109118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_15</t>
+          <t>model_14_4_12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9734022249739376</v>
+        <v>0.9640407162094856</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7141663524702824</v>
+        <v>0.7936315044355375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8626800744665607</v>
+        <v>-3.205969198296721</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9816184818516425</v>
+        <v>0.7100360480128851</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9398488146056216</v>
+        <v>0.7715321029054865</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1778594440707718</v>
+        <v>0.240459896284447</v>
       </c>
       <c r="H10" t="n">
-        <v>1.911370917174149</v>
+        <v>1.379987080079108</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8478627844108837</v>
+        <v>0.4485421683118893</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1944908901208408</v>
+        <v>0.966989084020515</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5211768528728242</v>
+        <v>0.7077656020472429</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9923643839884209</v>
+        <v>0.6693276085620758</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4217338545466463</v>
+        <v>0.4903671035912248</v>
       </c>
       <c r="N10" t="n">
-        <v>1.013027481645418</v>
+        <v>1.017612710428007</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4396879378441278</v>
+        <v>0.5112430463909456</v>
       </c>
       <c r="P10" t="n">
-        <v>149.4535233613436</v>
+        <v>148.8504039095138</v>
       </c>
       <c r="Q10" t="n">
-        <v>238.4314585767223</v>
+        <v>237.8283391248924</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_16</t>
+          <t>model_14_4_13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.972767853333049</v>
+        <v>0.9645490219374454</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7137679309075106</v>
+        <v>0.793107804131809</v>
       </c>
       <c r="D11" t="n">
-        <v>0.858108926154275</v>
+        <v>-3.346496417700235</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9805366440634862</v>
+        <v>0.715897649026132</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9375595431447229</v>
+        <v>0.772268273344471</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1821014901544064</v>
+        <v>0.2370608535410469</v>
       </c>
       <c r="H11" t="n">
-        <v>1.914035163998967</v>
+        <v>1.383489066421559</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8760867039983278</v>
+        <v>0.4635285794638346</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2059375830809479</v>
+        <v>0.9474414673052307</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5410121277313364</v>
+        <v>0.7054850360658366</v>
       </c>
       <c r="L11" t="n">
-        <v>1.001800068474144</v>
+        <v>0.6772397347080661</v>
       </c>
       <c r="M11" t="n">
-        <v>0.426733511871761</v>
+        <v>0.4868889540142052</v>
       </c>
       <c r="N11" t="n">
-        <v>1.013338194285853</v>
+        <v>1.01736374435717</v>
       </c>
       <c r="O11" t="n">
-        <v>0.44490044093229</v>
+        <v>0.5076168247856702</v>
       </c>
       <c r="P11" t="n">
-        <v>149.4063822182335</v>
+        <v>148.8788768096196</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.3843174336121</v>
+        <v>237.8568120249982</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_17</t>
+          <t>model_14_4_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9721457386995509</v>
+        <v>0.9649575467839884</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7133645454062655</v>
+        <v>0.7925841324277464</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8539329557586679</v>
+        <v>-3.475127155528646</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9795088535729708</v>
+        <v>0.7210865098130945</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9354440890013949</v>
+        <v>0.7728470897889771</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1862615735731829</v>
+        <v>0.2343290460111302</v>
       </c>
       <c r="H12" t="n">
-        <v>1.916732604703212</v>
+        <v>1.386990861517912</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9018706524929303</v>
+        <v>0.4772463000026533</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2168124132089442</v>
+        <v>0.9301373448268686</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5593413713794508</v>
+        <v>0.7036919335138783</v>
       </c>
       <c r="L12" t="n">
-        <v>1.010184686240765</v>
+        <v>0.6842208329264188</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4315803211143702</v>
+        <v>0.484075454873649</v>
       </c>
       <c r="N12" t="n">
-        <v>1.013642903494097</v>
+        <v>1.017163650554781</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4499535888786354</v>
+        <v>0.5046835491619542</v>
       </c>
       <c r="P12" t="n">
-        <v>149.3612065673257</v>
+        <v>148.9020579436686</v>
       </c>
       <c r="Q12" t="n">
-        <v>238.3391417827043</v>
+        <v>237.8799931590472</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_6</t>
+          <t>model_14_4_15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9753620192182648</v>
+        <v>0.9652859603266453</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7133407647429864</v>
+        <v>0.7920713587989355</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9248492394299248</v>
+        <v>-3.592615068147345</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9901225784305779</v>
+        <v>0.7256887641202583</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9671924395493485</v>
+        <v>0.7733020333309735</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1647542909349332</v>
+        <v>0.2321329431391778</v>
       </c>
       <c r="H13" t="n">
-        <v>1.916891626108059</v>
+        <v>1.390419781134876</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4640079206278298</v>
+        <v>0.4897757029991779</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1045108732385817</v>
+        <v>0.9147894726295981</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2842594205583769</v>
+        <v>0.7022825740634109</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9049009489349601</v>
+        <v>0.6903862605064479</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4058993605993155</v>
+        <v>0.481801767472036</v>
       </c>
       <c r="N13" t="n">
-        <v>1.012067582423707</v>
+        <v>1.017002794942051</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4231793367075379</v>
+        <v>0.5023130661804728</v>
       </c>
       <c r="P13" t="n">
-        <v>149.6066001216202</v>
+        <v>148.9208900813259</v>
       </c>
       <c r="Q13" t="n">
-        <v>238.5845353369989</v>
+        <v>237.8988252967045</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_18</t>
+          <t>model_14_4_3</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9715443567395906</v>
+        <v>0.9479581983825147</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7129653159479783</v>
+        <v>0.7918839190411326</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8501238505272466</v>
+        <v>-1.365121820342072</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9785401971970803</v>
+        <v>0.602189864510503</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9334954196631327</v>
+        <v>0.7451694964314057</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1902830175085467</v>
+        <v>0.3480037670465865</v>
       </c>
       <c r="H14" t="n">
-        <v>1.919402253929061</v>
+        <v>1.391673191658385</v>
       </c>
       <c r="I14" t="n">
-        <v>0.925389443047769</v>
+        <v>0.252226495155411</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2270615579883709</v>
+        <v>1.326640970006367</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5762255166601559</v>
+        <v>0.7894337325808888</v>
       </c>
       <c r="L14" t="n">
-        <v>1.017641092924984</v>
+        <v>0.5193325720061286</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4362144168967214</v>
+        <v>0.5899184410124729</v>
       </c>
       <c r="N14" t="n">
-        <v>1.013937457923466</v>
+        <v>1.025489862016727</v>
       </c>
       <c r="O14" t="n">
-        <v>0.454784967712342</v>
+        <v>0.6150324903458941</v>
       </c>
       <c r="P14" t="n">
-        <v>149.3184854985799</v>
+        <v>148.1110839488395</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.2964207139585</v>
+        <v>237.0890191642181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_19</t>
+          <t>model_14_4_16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9709695887187194</v>
+        <v>0.9655498785634551</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7125767201013943</v>
+        <v>0.7915770397833958</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8466550368818018</v>
+        <v>-3.699720710858809</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9776330893385561</v>
+        <v>0.7297759875633831</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9317056143422714</v>
+        <v>0.7736584317319348</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1941264939106762</v>
+        <v>0.2303681206743994</v>
       </c>
       <c r="H15" t="n">
-        <v>1.922000796144488</v>
+        <v>1.39372529466792</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9468071505261574</v>
+        <v>0.5011978972557821</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2366594711430987</v>
+        <v>0.901159156080353</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5917331928308844</v>
+        <v>0.7011784954071399</v>
       </c>
       <c r="L15" t="n">
-        <v>1.024282724192795</v>
+        <v>0.6958472957726828</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4405978823265906</v>
+        <v>0.479966791220392</v>
       </c>
       <c r="N15" t="n">
-        <v>1.014218976954097</v>
+        <v>1.016873528866879</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4593550463405851</v>
+        <v>0.5003999711908719</v>
       </c>
       <c r="P15" t="n">
-        <v>149.2784906038618</v>
+        <v>148.9361534497244</v>
       </c>
       <c r="Q15" t="n">
-        <v>238.2564258192405</v>
+        <v>237.9140886651031</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_20</t>
+          <t>model_14_4_17</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9704252250342466</v>
+        <v>0.965761891777861</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7122033905905076</v>
+        <v>0.7911060529303369</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8435005656815738</v>
+        <v>-3.797203142467148</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9767882157570638</v>
+        <v>0.7334103354961832</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9300657808801175</v>
+        <v>0.7739366936914271</v>
       </c>
       <c r="G16" t="n">
-        <v>0.19776665637531</v>
+        <v>0.228950387333436</v>
       </c>
       <c r="H16" t="n">
-        <v>1.924497252302811</v>
+        <v>1.39687478592302</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9662839942892125</v>
+        <v>0.5115938319819867</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2455988967975954</v>
+        <v>0.8890391157978755</v>
       </c>
       <c r="K16" t="n">
-        <v>0.605941445543404</v>
+        <v>0.7003164738899312</v>
       </c>
       <c r="L16" t="n">
-        <v>1.030197080356014</v>
+        <v>0.70068676652351</v>
       </c>
       <c r="M16" t="n">
-        <v>0.444709631529732</v>
+        <v>0.4784876041585989</v>
       </c>
       <c r="N16" t="n">
-        <v>1.014485604064859</v>
+        <v>1.016769685659823</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4636418412197985</v>
+        <v>0.4988578120735188</v>
       </c>
       <c r="P16" t="n">
-        <v>149.241334892847</v>
+        <v>148.9484998961974</v>
       </c>
       <c r="Q16" t="n">
-        <v>238.2192701082257</v>
+        <v>237.926435111576</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_21</t>
+          <t>model_14_4_18</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9699133313920382</v>
+        <v>0.9659321894386271</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7118483076071365</v>
+        <v>0.7906613508164089</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8406347446118998</v>
+        <v>-3.885796410138524</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9760048252877337</v>
+        <v>0.7366461534760225</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9285663471583397</v>
+        <v>0.7741534714156142</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2011896915178109</v>
+        <v>0.2278116060917437</v>
       </c>
       <c r="H17" t="n">
-        <v>1.926871693847621</v>
+        <v>1.399848511006521</v>
       </c>
       <c r="I17" t="n">
-        <v>0.983978607961032</v>
+        <v>0.5210417890415028</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2538877828657903</v>
+        <v>0.878248116975646</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6189332119247944</v>
+        <v>0.6996449230137651</v>
       </c>
       <c r="L17" t="n">
-        <v>1.03547281305005</v>
+        <v>0.704988340548072</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4485417388803532</v>
+        <v>0.4772961408724605</v>
       </c>
       <c r="N17" t="n">
-        <v>1.014736327481451</v>
+        <v>1.016686274560672</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4676370893138914</v>
+        <v>0.4976156257286206</v>
       </c>
       <c r="P17" t="n">
-        <v>149.2070141541401</v>
+        <v>148.958472561328</v>
       </c>
       <c r="Q17" t="n">
-        <v>238.1849493695187</v>
+        <v>237.9364077767066</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_5</t>
+          <t>model_14_4_19</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.97407277531368</v>
+        <v>0.966068774309088</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7117230762048995</v>
+        <v>0.7902444552262885</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9340367968205326</v>
+        <v>-3.96624190919839</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9898894653914673</v>
+        <v>0.7395292072640094</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9703236779120545</v>
+        <v>0.774320597908333</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1733754708613146</v>
+        <v>0.2268982624340569</v>
       </c>
       <c r="H18" t="n">
-        <v>1.927709116811017</v>
+        <v>1.402636293737284</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4072806251470391</v>
+        <v>0.5296208339365194</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1069773921686006</v>
+        <v>0.868633537223501</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2571289667731335</v>
+        <v>0.6991271855800101</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9286543181945524</v>
+        <v>0.7088152779320577</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4163838023522464</v>
+        <v>0.4763383906783673</v>
       </c>
       <c r="N18" t="n">
-        <v>1.012699048825953</v>
+        <v>1.01661937584861</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4341101228516774</v>
+        <v>0.4966171021259486</v>
       </c>
       <c r="P18" t="n">
-        <v>149.5045913689922</v>
+        <v>148.9665070901494</v>
       </c>
       <c r="Q18" t="n">
-        <v>238.4825265843708</v>
+        <v>237.944442305528</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_22</t>
+          <t>model_14_4_20</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9694350067130777</v>
+        <v>0.9661783011703796</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7115132894590355</v>
+        <v>0.7898559588152052</v>
       </c>
       <c r="D19" t="n">
-        <v>0.838034939558437</v>
+        <v>-4.039205251071826</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9752812003708149</v>
+        <v>0.7421011346868169</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9271982120071899</v>
+        <v>0.7744491503389392</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2043882508485026</v>
+        <v>0.2261658558082746</v>
       </c>
       <c r="H19" t="n">
-        <v>1.929111961746589</v>
+        <v>1.405234171027059</v>
       </c>
       <c r="I19" t="n">
-        <v>1.00003074273311</v>
+        <v>0.5374019502567354</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2615443024780036</v>
+        <v>0.8600565202332703</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6307873485923592</v>
+        <v>0.6987289458728138</v>
       </c>
       <c r="L19" t="n">
-        <v>1.040181078677227</v>
+        <v>0.7122247851502472</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4520931882350171</v>
+        <v>0.4755689811250042</v>
       </c>
       <c r="N19" t="n">
-        <v>1.01497060895686</v>
+        <v>1.016565730038998</v>
       </c>
       <c r="O19" t="n">
-        <v>0.471339731220097</v>
+        <v>0.4958149372150015</v>
       </c>
       <c r="P19" t="n">
-        <v>149.1754678069528</v>
+        <v>148.9729733472136</v>
       </c>
       <c r="Q19" t="n">
-        <v>238.1534030223314</v>
+        <v>237.9509085625922</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_23</t>
+          <t>model_14_4_21</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9689901131032291</v>
+        <v>0.9662660911411045</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7111993596385077</v>
+        <v>0.7894956793198826</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8356777186770636</v>
+        <v>-4.105319624654498</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9746148083317528</v>
+        <v>0.7443977424015031</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9259514009426522</v>
+        <v>0.7745472331473943</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2073632564661068</v>
+        <v>0.2255788038698016</v>
       </c>
       <c r="H20" t="n">
-        <v>1.931211211901972</v>
+        <v>1.407643361671215</v>
       </c>
       <c r="I20" t="n">
-        <v>1.014585075268529</v>
+        <v>0.5444526639175399</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2685952533189817</v>
+        <v>0.852397655829058</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6415902789499628</v>
+        <v>0.6984250973284032</v>
       </c>
       <c r="L20" t="n">
-        <v>1.044389229313691</v>
+        <v>0.7152626053980103</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4553715586925767</v>
+        <v>0.4749513700051844</v>
       </c>
       <c r="N20" t="n">
-        <v>1.015188516031071</v>
+        <v>1.016522730869663</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4747576686951973</v>
+        <v>0.4951710331111797</v>
       </c>
       <c r="P20" t="n">
-        <v>149.1465663230665</v>
+        <v>148.9781714365001</v>
       </c>
       <c r="Q20" t="n">
-        <v>238.1245015384451</v>
+        <v>237.9561066518788</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_24</t>
+          <t>model_14_4_22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9685781694676152</v>
+        <v>0.9663362258830169</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7109067125342903</v>
+        <v>0.789162807278965</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8335426466380161</v>
+        <v>-4.165193157006251</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9740030202330981</v>
+        <v>0.7464484809615627</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9248171390769714</v>
+        <v>0.7746204503654756</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2101179254542826</v>
+        <v>0.225109812527693</v>
       </c>
       <c r="H21" t="n">
-        <v>1.93316814443539</v>
+        <v>1.409869278541567</v>
       </c>
       <c r="I21" t="n">
-        <v>1.027767780669165</v>
+        <v>0.5508378281352007</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2750684516104576</v>
+        <v>0.8455587305482848</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6514180325613562</v>
+        <v>0.6981982793417427</v>
       </c>
       <c r="L21" t="n">
-        <v>1.048150273073243</v>
+        <v>0.7179791089154712</v>
       </c>
       <c r="M21" t="n">
-        <v>0.458386218656585</v>
+        <v>0.4744573874729879</v>
       </c>
       <c r="N21" t="n">
-        <v>1.015390284342393</v>
+        <v>1.016488379159339</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4779006689750799</v>
+        <v>0.4946560207199028</v>
       </c>
       <c r="P21" t="n">
-        <v>149.1201727121849</v>
+        <v>148.982333880319</v>
       </c>
       <c r="Q21" t="n">
-        <v>238.0981079275635</v>
+        <v>237.9602690956977</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_4</t>
+          <t>model_14_4_2</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9720419972775257</v>
+        <v>0.943298036060077</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7093850315740069</v>
+        <v>0.7889098496974962</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9434835329120644</v>
+        <v>-1.112533793806357</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9889737318692364</v>
+        <v>0.5787826723133653</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9731304517455337</v>
+        <v>0.7369182580799449</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1869552929399507</v>
+        <v>0.3791662939548022</v>
       </c>
       <c r="H22" t="n">
-        <v>1.943343632023502</v>
+        <v>1.411560807053611</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3489530668189473</v>
+        <v>0.2252894502626828</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1166665716158434</v>
+        <v>1.404700670831551</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2328098192173954</v>
+        <v>0.8149950598120889</v>
       </c>
       <c r="L22" t="n">
-        <v>0.954396376451172</v>
+        <v>0.4876582788710259</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4323832708835423</v>
+        <v>0.6157648040890306</v>
       </c>
       <c r="N22" t="n">
-        <v>1.013693715619171</v>
+        <v>1.027772390501187</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4507907218818163</v>
+        <v>0.6419791866079683</v>
       </c>
       <c r="P22" t="n">
-        <v>149.353771531796</v>
+        <v>147.939560799604</v>
       </c>
       <c r="Q22" t="n">
-        <v>238.3317067471746</v>
+        <v>236.9174960149826</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_3</t>
+          <t>model_14_4_23</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9690445903088823</v>
+        <v>0.9663923433047207</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7061136498844476</v>
+        <v>0.7888563669484882</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9530411134381344</v>
+        <v>-4.219368416163909</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9871353937532485</v>
+        <v>0.7482827688875675</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9754133992965505</v>
+        <v>0.7746752594245072</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2069989671410593</v>
+        <v>0.2247345550703627</v>
       </c>
       <c r="H23" t="n">
-        <v>1.965219376444913</v>
+        <v>1.411918446442493</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2899411149438962</v>
+        <v>0.5566153046372337</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1361176318403493</v>
+        <v>0.839441637753674</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2130293375508799</v>
+        <v>0.6980284875803773</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9823152541177688</v>
+        <v>0.720400724153727</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4549713915633151</v>
+        <v>0.4740617629279572</v>
       </c>
       <c r="N23" t="n">
-        <v>1.015161833318099</v>
+        <v>1.016460893075239</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4743404656227828</v>
+        <v>0.4942435536189344</v>
       </c>
       <c r="P23" t="n">
-        <v>149.1500829507719</v>
+        <v>148.9856706569592</v>
       </c>
       <c r="Q23" t="n">
-        <v>238.1280181661505</v>
+        <v>237.9636058723378</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_2</t>
+          <t>model_14_4_24</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9647964782543265</v>
+        <v>0.9664371016096174</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7016391986128365</v>
+        <v>0.7885750126707715</v>
       </c>
       <c r="D24" t="n">
-        <v>0.962509844562244</v>
+        <v>-4.26835684527932</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9840646294390698</v>
+        <v>0.7499234000641118</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9769121787579658</v>
+        <v>0.7747151215951515</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2354061120106315</v>
+        <v>0.2244352560794258</v>
       </c>
       <c r="H24" t="n">
-        <v>1.995140052701129</v>
+        <v>1.413799863793102</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2314777513457956</v>
+        <v>0.5618396358630826</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1686087286037201</v>
+        <v>0.8339703630391792</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2000432399747578</v>
+        <v>0.6979049994511308</v>
       </c>
       <c r="L24" t="n">
-        <v>1.012689610000984</v>
+        <v>0.7225700336470298</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4851866774867499</v>
+        <v>0.4737459826525454</v>
       </c>
       <c r="N24" t="n">
-        <v>1.017242541263187</v>
+        <v>1.016438970640188</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5058420788222429</v>
+        <v>0.493914329923443</v>
       </c>
       <c r="P24" t="n">
-        <v>148.8928862402636</v>
+        <v>148.9883360100422</v>
       </c>
       <c r="Q24" t="n">
-        <v>237.8708214556422</v>
+        <v>237.9662712254208</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9589400573101412</v>
+        <v>0.9374441260854125</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6956201060794693</v>
+        <v>0.7842526209174054</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9716269314711445</v>
+        <v>-0.8556082493167336</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9793612267615002</v>
+        <v>0.5508102577840739</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9772888057401478</v>
+        <v>0.7262844518738097</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2745680258307375</v>
+        <v>0.4183114169101608</v>
       </c>
       <c r="H25" t="n">
-        <v>2.035389752187128</v>
+        <v>1.442703717350645</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1751855660546374</v>
+        <v>0.197889834291468</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2183744207502635</v>
+        <v>1.497984747414711</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1967799748538184</v>
+        <v>0.8479372908530893</v>
       </c>
       <c r="L25" t="n">
-        <v>1.045906455891436</v>
+        <v>0.4567895234991798</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5239923910046189</v>
+        <v>0.6467699876386974</v>
       </c>
       <c r="N25" t="n">
-        <v>1.02011099233789</v>
+        <v>1.030639611713267</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5462998319034686</v>
+        <v>0.6743043250109224</v>
       </c>
       <c r="P25" t="n">
-        <v>148.5851124630003</v>
+        <v>147.7430582146259</v>
       </c>
       <c r="Q25" t="n">
-        <v>237.563047678379</v>
+        <v>236.7209934300045</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9510259312696026</v>
+        <v>0.9300869727564657</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6876237779766639</v>
+        <v>0.7770972260132989</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9800575227985416</v>
+        <v>-0.592521916392218</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9725071003931229</v>
+        <v>0.5168133347444147</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9761076072144711</v>
+        <v>0.712514004070406</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3274898231050193</v>
+        <v>0.4675087350974041</v>
       </c>
       <c r="H26" t="n">
-        <v>2.088861235030294</v>
+        <v>1.49055187602197</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1231320522669638</v>
+        <v>0.1698332060425084</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2908964577021197</v>
+        <v>1.611359714352314</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2070144087422604</v>
+        <v>0.8905964539301859</v>
       </c>
       <c r="L26" t="n">
-        <v>1.082533901789471</v>
+        <v>0.4289845546270363</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5722672654494745</v>
+        <v>0.6837461042648829</v>
       </c>
       <c r="N26" t="n">
-        <v>1.023987298969991</v>
+        <v>1.034243115384588</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5966298676962082</v>
+        <v>0.712854591472998</v>
       </c>
       <c r="P26" t="n">
-        <v>148.2325965977563</v>
+        <v>147.5206744914553</v>
       </c>
       <c r="Q26" t="n">
-        <v>237.2105318131349</v>
+        <v>236.4986097068339</v>
       </c>
     </row>
   </sheetData>
